--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2212.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2212.xlsx
@@ -351,10 +351,10 @@
         <v>1.444354963046825</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.180929624046813</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2212.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2212.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.444354963046825</v>
+        <v>0.9631166458129883</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.226003646850586</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>8.196019172668457</v>
       </c>
       <c r="D1">
-        <v>1.180929624046813</v>
+        <v>1.803224921226501</v>
       </c>
       <c r="E1">
-        <v>0.778336023042443</v>
+        <v>1.289706468582153</v>
       </c>
     </row>
   </sheetData>
